--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="636">
   <si>
     <t>Property</t>
   </si>
@@ -967,6 +967,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1025,6 +1028,42 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode</t>
+  </si>
+  <si>
+    <t>BodyHeightSnomedCode</t>
+  </si>
+  <si>
+    <t>body Height Snomed Code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.code</t>
+  </si>
+  <si>
+    <t>50373000</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyHeightSnomedCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1197,7 +1236,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -2273,7 +2312,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AP94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2282,9 +2321,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.9765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.42578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6070,7 +6109,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6134,7 +6173,7 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6179,13 +6218,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6303,10 +6342,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6421,10 +6460,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6541,10 +6580,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6586,7 +6625,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6663,10 +6702,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6783,10 +6822,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6826,7 +6865,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6903,10 +6942,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7023,10 +7062,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7145,18 +7184,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7171,19 +7212,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>284</v>
+        <v>226</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7232,13 +7273,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>285</v>
+        <v>227</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7253,10 +7294,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>286</v>
+        <v>228</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7267,10 +7308,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7278,35 +7319,31 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7354,7 +7391,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>326</v>
+        <v>212</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7366,22 +7403,22 @@
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>332</v>
+        <v>80</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>333</v>
+        <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>334</v>
+        <v>213</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>80</v>
@@ -7389,14 +7426,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7412,19 +7449,19 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>217</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>340</v>
+        <v>152</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7462,19 +7499,19 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>336</v>
+        <v>219</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7486,7 +7523,7 @@
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7495,13 +7532,13 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>341</v>
+        <v>213</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>80</v>
@@ -7509,18 +7546,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>343</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>91</v>
@@ -7535,19 +7572,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>344</v>
+        <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>345</v>
+        <v>236</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>346</v>
+        <v>237</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>347</v>
+        <v>238</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>348</v>
+        <v>239</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7557,7 +7594,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7596,7 +7633,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>342</v>
+        <v>241</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7611,19 +7648,19 @@
         <v>103</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>350</v>
+        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>351</v>
+        <v>243</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>352</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7631,24 +7668,24 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>80</v>
@@ -7657,20 +7694,18 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>355</v>
+        <v>209</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>247</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7718,7 +7753,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>353</v>
+        <v>249</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7727,25 +7762,25 @@
         <v>91</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>361</v>
+        <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>250</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>364</v>
+        <v>251</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7753,10 +7788,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>366</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7764,7 +7799,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7779,18 +7814,18 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>367</v>
+        <v>111</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7799,7 +7834,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7838,7 +7873,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7859,13 +7894,13 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7873,10 +7908,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>374</v>
+        <v>323</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7887,7 +7922,7 @@
         <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>80</v>
@@ -7899,17 +7934,17 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>209</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>377</v>
+        <v>264</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>378</v>
+        <v>265</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7946,23 +7981,25 @@
         <v>80</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AC47" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>374</v>
+        <v>266</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>80</v>
@@ -7971,19 +8008,19 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>381</v>
+        <v>267</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>382</v>
+        <v>268</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -7991,14 +8028,12 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C48" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
         <v>80</v>
       </c>
@@ -8007,7 +8042,7 @@
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8019,17 +8054,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>376</v>
+        <v>272</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8078,13 +8115,13 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>374</v>
+        <v>276</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
@@ -8093,19 +8130,19 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>381</v>
+        <v>277</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>382</v>
+        <v>278</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8113,14 +8150,12 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C49" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -8129,7 +8164,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>80</v>
@@ -8141,17 +8176,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>389</v>
+        <v>209</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>281</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8200,13 +8237,13 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>80</v>
@@ -8215,19 +8252,19 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>380</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>381</v>
+        <v>286</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>382</v>
+        <v>287</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8235,10 +8272,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8246,7 +8283,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
@@ -8261,19 +8298,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>343</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>394</v>
+        <v>344</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8310,17 +8347,19 @@
         <v>80</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AC50" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>396</v>
+        <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8329,40 +8368,38 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C51" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8371,10 +8408,10 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8383,20 +8420,18 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8444,16 +8479,16 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>397</v>
+        <v>80</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>103</v>
@@ -8462,31 +8497,31 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>406</v>
+        <v>355</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8502,19 +8537,23 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>209</v>
+        <v>357</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8562,7 +8601,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8574,22 +8613,22 @@
         <v>80</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>362</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>363</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>213</v>
+        <v>364</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8597,44 +8636,46 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>408</v>
+        <v>366</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>149</v>
+        <v>367</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8670,46 +8711,46 @@
         <v>80</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>378</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8717,10 +8758,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8728,13 +8769,13 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8743,20 +8784,18 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8804,7 +8843,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8825,13 +8864,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>386</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8839,10 +8878,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8853,36 +8892,34 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>111</v>
+        <v>388</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q55" t="s" s="2">
-        <v>424</v>
-      </c>
+      <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8902,37 +8939,35 @@
         <v>80</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>425</v>
+        <v>80</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>426</v>
+        <v>80</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8941,19 +8976,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8961,24 +8996,26 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8987,17 +9024,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>390</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>434</v>
+        <v>391</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9046,13 +9083,13 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>435</v>
+        <v>387</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>80</v>
@@ -9061,19 +9098,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9081,24 +9118,26 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>80</v>
@@ -9107,24 +9146,24 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>105</v>
+        <v>402</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="S57" t="s" s="2">
         <v>80</v>
@@ -9166,34 +9205,34 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>444</v>
+        <v>387</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>445</v>
+        <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>446</v>
+        <v>395</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9201,10 +9240,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>448</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9212,7 +9251,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>91</v>
@@ -9227,19 +9266,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>404</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>449</v>
+        <v>405</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>450</v>
+        <v>406</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>451</v>
+        <v>407</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9264,31 +9303,29 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>452</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>453</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9297,7 +9334,7 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>410</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9306,29 +9343,31 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9346,22 +9385,22 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
+        <v>405</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>459</v>
+        <v>406</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>460</v>
+        <v>407</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9386,13 +9425,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9410,7 +9449,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9419,7 +9458,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9428,38 +9467,38 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>80</v>
+        <v>411</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>134</v>
+        <v>412</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>464</v>
+        <v>413</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>465</v>
+        <v>418</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>465</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
@@ -9471,20 +9510,16 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>210</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9508,13 +9543,13 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9532,49 +9567,49 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>465</v>
+        <v>212</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>475</v>
+        <v>213</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>477</v>
+        <v>420</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>477</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9593,20 +9628,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>478</v>
+        <v>136</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>479</v>
+        <v>216</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>480</v>
+        <v>217</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9642,19 +9675,19 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>219</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9666,7 +9699,7 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>80</v>
@@ -9675,10 +9708,10 @@
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>484</v>
+        <v>213</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9689,10 +9722,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>485</v>
+        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9700,33 +9733,35 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>486</v>
+        <v>425</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>487</v>
+        <v>426</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9750,13 +9785,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>490</v>
+        <v>80</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>491</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9774,7 +9809,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9792,27 +9827,27 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>494</v>
+        <v>431</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>432</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9829,30 +9864,30 @@
         <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>499</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="R63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9872,13 +9907,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>489</v>
+        <v>187</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9896,7 +9931,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9917,10 +9952,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>503</v>
+        <v>441</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9931,10 +9966,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>505</v>
+        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9942,33 +9977,33 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>506</v>
+        <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>507</v>
+        <v>445</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10016,7 +10051,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>505</v>
+        <v>448</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10034,27 +10069,27 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>513</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10062,39 +10097,39 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O65" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>80</v>
+        <v>456</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>80</v>
@@ -10136,7 +10171,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10145,7 +10180,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>80</v>
+        <v>458</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10154,27 +10189,27 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>519</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>449</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>521</v>
+        <v>459</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10182,34 +10217,34 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>524</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>525</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>526</v>
+        <v>462</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>527</v>
+        <v>463</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>528</v>
+        <v>464</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10234,13 +10269,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>465</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>466</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10258,19 +10293,19 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>523</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>529</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10279,10 +10314,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>530</v>
+        <v>449</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10293,10 +10328,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10310,7 +10345,7 @@
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
@@ -10319,16 +10354,20 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10352,13 +10391,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>80</v>
+        <v>475</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10376,7 +10415,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>212</v>
+        <v>469</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10385,10 +10424,10 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>80</v>
+        <v>476</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10397,10 +10436,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>213</v>
+        <v>477</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10411,14 +10450,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>533</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>149</v>
+        <v>479</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10437,18 +10476,20 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>216</v>
+        <v>480</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>482</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>483</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10472,13 +10513,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>484</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>485</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10496,7 +10537,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>219</v>
+        <v>478</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10508,37 +10549,37 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>213</v>
+        <v>488</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>534</v>
+        <v>490</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10551,25 +10592,25 @@
         <v>80</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>491</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>536</v>
+        <v>492</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>537</v>
+        <v>493</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>152</v>
+        <v>494</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>153</v>
+        <v>495</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10618,7 +10659,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>538</v>
+        <v>490</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10630,7 +10671,7 @@
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10639,10 +10680,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>134</v>
+        <v>497</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10653,10 +10694,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10679,15 +10720,17 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>540</v>
+        <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>541</v>
+        <v>499</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10712,13 +10755,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>503</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10736,7 +10779,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10745,7 +10788,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10754,27 +10797,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>544</v>
+        <v>506</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>545</v>
+        <v>507</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10797,16 +10840,20 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>540</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>547</v>
+        <v>510</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10830,13 +10877,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>515</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10854,7 +10901,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>546</v>
+        <v>509</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10863,7 +10910,7 @@
         <v>91</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>103</v>
@@ -10875,10 +10922,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>549</v>
+        <v>517</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10889,10 +10936,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10915,20 +10962,18 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>195</v>
+        <v>519</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10952,13 +10997,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -10976,7 +11021,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>550</v>
+        <v>518</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10994,27 +11039,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11025,7 +11070,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11037,20 +11082,18 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>195</v>
+        <v>528</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11074,13 +11117,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>489</v>
+        <v>80</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>565</v>
+        <v>80</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11098,13 +11141,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>559</v>
+        <v>527</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -11116,27 +11159,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>475</v>
+        <v>534</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>80</v>
+        <v>535</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11147,7 +11190,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11159,17 +11202,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>539</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O74" t="s" s="2">
-        <v>570</v>
+        <v>541</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11218,19 +11263,19 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>542</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11239,10 +11284,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11253,10 +11298,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11282,10 +11327,10 @@
         <v>209</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>573</v>
+        <v>210</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>574</v>
+        <v>211</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11336,7 +11381,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>572</v>
+        <v>212</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11348,7 +11393,7 @@
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11357,10 +11402,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>544</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>575</v>
+        <v>213</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11371,14 +11416,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11394,19 +11439,19 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>577</v>
+        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>578</v>
+        <v>216</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>579</v>
+        <v>217</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>580</v>
+        <v>152</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11456,7 +11501,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>576</v>
+        <v>219</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11468,7 +11513,7 @@
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11477,10 +11522,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>582</v>
+        <v>213</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11491,14 +11536,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>583</v>
+        <v>547</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11511,24 +11556,26 @@
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>584</v>
+        <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>585</v>
+        <v>549</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>586</v>
+        <v>550</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11576,7 +11623,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>583</v>
+        <v>551</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11588,7 +11635,7 @@
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11597,10 +11644,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>588</v>
+        <v>134</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11611,10 +11658,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11625,32 +11672,28 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>524</v>
+        <v>553</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>590</v>
+        <v>554</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>592</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11698,19 +11741,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>593</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11719,10 +11762,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>595</v>
+        <v>558</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11733,10 +11776,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>596</v>
+        <v>559</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11759,13 +11802,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>209</v>
+        <v>553</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>210</v>
+        <v>560</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>211</v>
+        <v>561</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11816,7 +11859,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>212</v>
+        <v>559</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11825,10 +11868,10 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>80</v>
+        <v>556</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11837,10 +11880,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>213</v>
+        <v>562</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11851,21 +11894,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -11877,18 +11920,20 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>216</v>
+        <v>564</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>217</v>
+        <v>565</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O80" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11912,13 +11957,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>80</v>
+        <v>568</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11936,31 +11981,31 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>219</v>
+        <v>563</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>213</v>
+        <v>488</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -11971,14 +12016,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>598</v>
+        <v>572</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>535</v>
+        <v>80</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11991,25 +12036,25 @@
         <v>80</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>536</v>
+        <v>573</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>537</v>
+        <v>574</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>152</v>
+        <v>575</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>153</v>
+        <v>576</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12034,13 +12079,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>80</v>
+        <v>577</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>578</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12058,7 +12103,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12070,19 +12115,19 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>80</v>
+        <v>570</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>571</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>134</v>
+        <v>488</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12093,10 +12138,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12104,34 +12149,32 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>580</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>600</v>
+        <v>581</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>602</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12156,13 +12199,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12180,10 +12223,10 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>91</v>
@@ -12198,16 +12241,16 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>604</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>300</v>
+        <v>584</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>80</v>
@@ -12215,10 +12258,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12232,29 +12275,25 @@
         <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>606</v>
+        <v>209</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>587</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12278,13 +12317,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>610</v>
+        <v>80</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>611</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12302,7 +12341,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12311,7 +12350,7 @@
         <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>612</v>
+        <v>80</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>103</v>
@@ -12320,27 +12359,27 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>613</v>
+        <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>399</v>
+        <v>557</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>400</v>
+        <v>588</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12351,32 +12390,30 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J84" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="I84" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K84" t="s" s="2">
-        <v>195</v>
+        <v>590</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12400,13 +12437,13 @@
         <v>80</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>461</v>
+        <v>80</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>462</v>
+        <v>80</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>80</v>
@@ -12424,16 +12461,16 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>618</v>
+        <v>80</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>103</v>
@@ -12445,10 +12482,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>134</v>
+        <v>594</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>464</v>
+        <v>595</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12459,14 +12496,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12482,23 +12519,21 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>195</v>
+        <v>597</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>467</v>
+        <v>598</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12522,13 +12557,13 @@
         <v>80</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>471</v>
+        <v>80</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12546,7 +12581,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12564,27 +12599,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>473</v>
+        <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>475</v>
+        <v>601</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>476</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12598,28 +12633,28 @@
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>621</v>
+        <v>603</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>622</v>
+        <v>603</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>527</v>
+        <v>604</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12668,7 +12703,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12680,29 +12715,999 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP86" t="s" s="2">
+      <c r="AK90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP93" t="s" s="2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="P94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP94" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP86">
+  <autoFilter ref="A1:AP94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12712,7 +13717,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="635">
   <si>
     <t>Property</t>
   </si>
@@ -965,9 +965,6 @@
   </si>
   <si>
     <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>value:code}
@@ -6109,7 +6106,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>306</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6173,7 +6170,7 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
@@ -6218,13 +6215,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>305</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>80</v>
@@ -6342,10 +6339,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6460,10 +6457,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B35" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6580,10 +6577,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B36" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6625,7 +6622,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6702,10 +6699,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6822,10 +6819,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6865,7 +6862,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6942,10 +6939,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7062,10 +7059,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7184,20 +7181,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>305</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>91</v>
@@ -7215,10 +7212,10 @@
         <v>222</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>225</v>
@@ -7308,10 +7305,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7426,10 +7423,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7546,10 +7543,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7594,7 +7591,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7668,10 +7665,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7788,10 +7785,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7834,7 +7831,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7908,10 +7905,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8028,10 +8025,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8150,10 +8147,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8272,10 +8269,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8298,19 +8295,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8359,7 +8356,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8374,19 +8371,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8394,10 +8391,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8420,16 +8417,16 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8479,7 +8476,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8503,10 +8500,10 @@
         <v>299</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8514,14 +8511,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8540,19 +8537,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8601,7 +8598,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8616,19 +8613,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="AL52" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8636,14 +8633,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8662,19 +8659,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8723,7 +8720,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8732,25 +8729,25 @@
         <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8758,10 +8755,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8784,16 +8781,16 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8843,7 +8840,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8864,13 +8861,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8878,10 +8875,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8904,17 +8901,17 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8951,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AC55" s="2"/>
       <c r="AD55" t="s" s="2">
@@ -8961,7 +8958,7 @@
         <v>140</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8976,19 +8973,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8996,13 +8993,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>80</v>
@@ -9024,17 +9021,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9083,7 +9080,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9098,19 +9095,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN56" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9118,13 +9115,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C57" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
@@ -9146,17 +9143,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9205,7 +9202,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9220,19 +9217,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9240,10 +9237,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9266,19 +9263,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9315,26 +9312,26 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
@@ -9343,30 +9340,30 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP58" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C59" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
@@ -9388,19 +9385,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N59" t="s" s="2">
+      <c r="O59" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9449,7 +9446,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9458,7 +9455,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9467,27 +9464,27 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP59" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9602,10 +9599,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9722,10 +9719,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9748,19 +9745,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9809,7 +9806,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9830,10 +9827,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9844,10 +9841,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9873,20 +9870,20 @@
         <v>111</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="P63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q63" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>80</v>
@@ -9910,28 +9907,28 @@
         <v>187</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="Z63" t="s" s="2">
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9952,10 +9949,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9966,10 +9963,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9995,14 +9992,14 @@
         <v>209</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10051,7 +10048,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10072,10 +10069,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10086,10 +10083,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10115,72 +10112,72 @@
         <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="S65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF65" t="s" s="2">
+      <c r="AG65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10192,10 +10189,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10206,10 +10203,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10235,16 +10232,16 @@
         <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -10272,28 +10269,28 @@
         <v>187</v>
       </c>
       <c r="Y66" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z66" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10314,10 +10311,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10328,10 +10325,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10357,16 +10354,16 @@
         <v>195</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10394,37 +10391,37 @@
         <v>294</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI67" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10439,7 +10436,7 @@
         <v>134</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10450,14 +10447,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10479,16 +10476,16 @@
         <v>195</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10516,11 +10513,11 @@
         <v>294</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z68" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10537,7 +10534,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10555,27 +10552,27 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AO68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP68" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10598,19 +10595,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10659,7 +10656,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10680,10 +10677,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10694,10 +10691,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10723,13 +10720,13 @@
         <v>195</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10755,14 +10752,14 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Y70" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="Y70" t="s" s="2">
+      <c r="Z70" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="Z70" t="s" s="2">
-        <v>504</v>
-      </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10797,27 +10794,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AN70" t="s" s="2">
+      <c r="AO70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP70" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>508</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10843,16 +10840,16 @@
         <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10877,14 +10874,14 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>515</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10901,7 +10898,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10922,10 +10919,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10936,10 +10933,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10962,16 +10959,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11021,7 +11018,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11039,27 +11036,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="AM72" t="s" s="2">
+      <c r="AN72" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11082,16 +11079,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11141,7 +11138,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11159,27 +11156,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>535</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11202,19 +11199,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11263,7 +11260,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11275,19 +11272,19 @@
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="AN74" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11298,10 +11295,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11416,10 +11413,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11536,14 +11533,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11565,10 +11562,10 @@
         <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>152</v>
@@ -11623,7 +11620,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11658,10 +11655,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11684,13 +11681,13 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>555</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11741,7 +11738,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11750,7 +11747,7 @@
         <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>103</v>
@@ -11762,10 +11759,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11776,10 +11773,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11802,13 +11799,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11859,7 +11856,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11868,7 +11865,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11880,10 +11877,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11894,10 +11891,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11923,16 +11920,16 @@
         <v>195</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11960,11 +11957,11 @@
         <v>115</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="Z80" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="Z80" t="s" s="2">
-        <v>569</v>
-      </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11981,7 +11978,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11999,13 +11996,13 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AM80" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="AN80" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12016,10 +12013,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12045,16 +12042,16 @@
         <v>195</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>573</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>574</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12079,14 +12076,14 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="Y81" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="Z81" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="Z81" t="s" s="2">
-        <v>578</v>
-      </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12103,7 +12100,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12121,13 +12118,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="AM81" t="s" s="2">
-        <v>571</v>
-      </c>
       <c r="AN81" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12138,10 +12135,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12164,17 +12161,17 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12223,7 +12220,7 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12247,7 +12244,7 @@
         <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12258,10 +12255,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12287,10 +12284,10 @@
         <v>209</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -12341,7 +12338,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12362,10 +12359,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12376,10 +12373,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12402,16 +12399,16 @@
         <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12461,7 +12458,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12482,10 +12479,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12496,10 +12493,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12522,16 +12519,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>597</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>598</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>600</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12581,7 +12578,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12602,10 +12599,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12616,10 +12613,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12642,19 +12639,19 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="N86" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="M86" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12703,7 +12700,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12715,19 +12712,19 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="AK86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12738,10 +12735,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12856,10 +12853,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12976,14 +12973,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -13005,10 +13002,10 @@
         <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>152</v>
@@ -13063,7 +13060,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13098,10 +13095,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13127,16 +13124,16 @@
         <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="N90" t="s" s="2">
+      <c r="O90" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13185,7 +13182,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>91</v>
@@ -13203,7 +13200,7 @@
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>299</v>
@@ -13220,10 +13217,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13246,19 +13243,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>621</v>
       </c>
-      <c r="N91" t="s" s="2">
-        <v>622</v>
-      </c>
       <c r="O91" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13286,37 +13283,37 @@
         <v>187</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI91" t="s" s="2">
         <v>624</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>625</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13325,27 +13322,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AN91" t="s" s="2">
+      <c r="AO91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP91" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP91" t="s" s="2">
-        <v>414</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13371,16 +13368,16 @@
         <v>195</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>628</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="N92" t="s" s="2">
-        <v>630</v>
-      </c>
       <c r="O92" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13408,11 +13405,11 @@
         <v>294</v>
       </c>
       <c r="Y92" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z92" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="Z92" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13429,7 +13426,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13438,7 +13435,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13453,7 +13450,7 @@
         <v>134</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13464,14 +13461,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13493,16 +13490,16 @@
         <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13530,11 +13527,11 @@
         <v>294</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>485</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13551,7 +13548,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13569,27 +13566,27 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13615,16 +13612,16 @@
         <v>81</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="M94" t="s" s="2">
-        <v>635</v>
-      </c>
       <c r="N94" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O94" t="s" s="2">
         <v>540</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13673,7 +13670,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13694,10 +13691,10 @@
         <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN94" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -577,7 +577,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1108,7 +1108,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1166,7 +1166,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1205,7 +1205,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the `lastUpdated` time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -1572,7 +1572,8 @@
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.</t>
+    <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>example</t>
@@ -1864,7 +1865,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see Notes below.  Note that a system may calculate results from QuestionnaireResponse into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1886,7 +1887,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see Notes below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1898,7 +1899,7 @@
     <t>Used when reporting systolic and diastolic blood pressure.</t>
   </si>
   <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see Notes below.</t>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$95</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3676" uniqueCount="639">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -480,6 +480,22 @@
 </t>
   </si>
   <si>
+    <t>Observation.extension:confoundingFactor</t>
+  </si>
+  <si>
+    <t>confoundingFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationConfoundingFactor}
+</t>
+  </si>
+  <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Narrative description of any issues or factors that may impact on measurment eg: Noting of amputation</t>
+  </si>
+  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -1312,9 +1328,6 @@
   </si>
   <si>
     <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>The length of the body from crown of head to sole of foot.</t>
   </si>
   <si>
     <t>Observation.value[x]:valueQuantity.id</t>
@@ -2310,7 +2323,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP94"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3569,43 +3582,41 @@
         <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>153</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3662,7 +3673,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3688,14 +3699,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3708,23 +3719,25 @@
         <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3773,7 +3786,7 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3785,22 +3798,22 @@
         <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>80</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>80</v>
@@ -3808,14 +3821,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3834,17 +3847,17 @@
         <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
@@ -3893,7 +3906,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3908,19 +3921,19 @@
         <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
@@ -3928,14 +3941,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3954,18 +3967,18 @@
         <v>92</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -4013,7 +4026,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4028,16 +4041,16 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>80</v>
@@ -4048,46 +4061,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>186</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4111,11 +4122,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -4133,13 +4146,13 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -4148,19 +4161,19 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4168,10 +4181,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4182,31 +4195,31 @@
         <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4231,35 +4244,35 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AC16" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>80</v>
@@ -4268,19 +4281,19 @@
         <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>194</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -4288,14 +4301,12 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="C17" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>92</v>
@@ -4316,19 +4327,19 @@
         <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
@@ -4356,28 +4367,26 @@
         <v>115</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4401,10 +4410,10 @@
         <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4412,24 +4421,26 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>80</v>
@@ -4438,16 +4449,20 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -4471,13 +4486,13 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>80</v>
+        <v>205</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4495,19 +4510,19 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>80</v>
@@ -4519,10 +4534,10 @@
         <v>80</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4530,21 +4545,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -4556,17 +4571,15 @@
         <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -4603,43 +4616,43 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>80</v>
@@ -4650,46 +4663,44 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="N20" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4725,19 +4736,19 @@
         <v>80</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4749,7 +4760,7 @@
         <v>80</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>80</v>
@@ -4758,10 +4769,10 @@
         <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>80</v>
@@ -4772,10 +4783,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4783,31 +4794,35 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4855,19 +4870,19 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4876,10 +4891,10 @@
         <v>80</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>80</v>
@@ -4890,21 +4905,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4916,17 +4931,15 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -4963,43 +4976,43 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>80</v>
@@ -5010,52 +5023,50 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>80</v>
@@ -5085,31 +5096,31 @@
         <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5118,10 +5129,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5132,10 +5143,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5143,13 +5154,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>80</v>
@@ -5158,24 +5169,26 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>80</v>
@@ -5217,7 +5230,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -5238,10 +5251,10 @@
         <v>80</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5252,10 +5265,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5263,13 +5276,13 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
@@ -5278,24 +5291,24 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>80</v>
@@ -5337,7 +5350,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5358,10 +5371,10 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5372,10 +5385,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5383,13 +5396,13 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
@@ -5398,24 +5411,24 @@
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
@@ -5457,7 +5470,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5478,10 +5491,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5492,10 +5505,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5518,19 +5531,17 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5579,7 +5590,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5600,10 +5611,10 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5614,10 +5625,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5640,19 +5651,19 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
@@ -5701,7 +5712,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5722,10 +5733,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5736,24 +5747,24 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>289</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>80</v>
@@ -5762,19 +5773,19 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5799,13 +5810,13 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
@@ -5823,10 +5834,10 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>91</v>
@@ -5838,62 +5849,66 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>302</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
@@ -5917,13 +5932,13 @@
         <v>80</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>80</v>
+        <v>301</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>80</v>
@@ -5941,10 +5956,10 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>212</v>
+        <v>293</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>91</v>
@@ -5953,44 +5968,44 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>213</v>
+        <v>305</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -6002,17 +6017,15 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6049,43 +6062,43 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6096,18 +6109,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>79</v>
@@ -6119,23 +6132,21 @@
         <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>224</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6171,9 +6182,11 @@
         <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AC32" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="AD32" t="s" s="2">
         <v>80</v>
       </c>
@@ -6181,7 +6194,7 @@
         <v>140</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6193,7 +6206,7 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
@@ -6202,10 +6215,10 @@
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>228</v>
+        <v>80</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>80</v>
@@ -6216,14 +6229,12 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6232,7 +6243,7 @@
         <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -6244,19 +6255,19 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -6293,19 +6304,17 @@
         <v>80</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6326,10 +6335,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6340,18 +6349,20 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="D34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>
@@ -6363,19 +6374,23 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6423,19 +6438,19 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>80</v>
@@ -6444,10 +6459,10 @@
         <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>80</v>
@@ -6458,21 +6473,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6484,17 +6499,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M35" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6531,43 +6544,43 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6578,21 +6591,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6601,29 +6614,27 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>80</v>
@@ -6653,31 +6664,31 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6686,10 +6697,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6700,10 +6711,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6711,7 +6722,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>91</v>
@@ -6726,24 +6737,26 @@
         <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="S37" t="s" s="2">
         <v>80</v>
@@ -6785,7 +6798,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6806,10 +6819,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6820,10 +6833,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6831,7 +6844,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>91</v>
@@ -6846,24 +6859,24 @@
         <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6905,7 +6918,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6926,10 +6939,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -6940,10 +6953,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6951,7 +6964,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -6966,24 +6979,24 @@
         <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7025,7 +7038,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7046,10 +7059,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7060,10 +7073,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7086,19 +7099,17 @@
         <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
@@ -7147,7 +7158,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -7168,10 +7179,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7182,14 +7193,12 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -7210,19 +7219,19 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>327</v>
+        <v>278</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -7271,13 +7280,13 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>80</v>
@@ -7292,10 +7301,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7306,12 +7315,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7329,19 +7340,23 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>210</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>231</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7389,19 +7404,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7410,10 +7425,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7424,21 +7439,21 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7450,17 +7465,15 @@
         <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M43" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7497,43 +7510,43 @@
         <v>80</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7544,21 +7557,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7567,23 +7580,21 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7592,7 +7603,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>331</v>
+        <v>80</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7619,31 +7630,31 @@
         <v>80</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>80</v>
@@ -7652,10 +7663,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>242</v>
+        <v>80</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7666,10 +7677,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7677,7 +7688,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>91</v>
@@ -7692,18 +7703,20 @@
         <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7712,7 +7725,7 @@
         <v>80</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>80</v>
+        <v>336</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>80</v>
@@ -7751,7 +7764,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7772,10 +7785,10 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7786,10 +7799,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7797,7 +7810,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7812,18 +7825,18 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7832,7 +7845,7 @@
         <v>80</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>80</v>
@@ -7871,7 +7884,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7892,10 +7905,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7906,10 +7919,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7917,7 +7930,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7932,17 +7945,17 @@
         <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7952,7 +7965,7 @@
         <v>80</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>80</v>
+        <v>339</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>80</v>
@@ -7991,7 +8004,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8012,10 +8025,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8026,10 +8039,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8052,19 +8065,17 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>274</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -8113,7 +8124,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8134,10 +8145,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8148,10 +8159,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8174,19 +8185,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>209</v>
+        <v>276</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -8235,7 +8246,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8256,10 +8267,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8270,10 +8281,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8281,13 +8292,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8296,19 +8307,19 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>286</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>342</v>
+        <v>288</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -8357,7 +8368,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8372,19 +8383,19 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>346</v>
+        <v>292</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8392,10 +8403,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8403,13 +8414,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8418,18 +8429,20 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8477,13 +8490,13 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>80</v>
@@ -8492,19 +8505,19 @@
         <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>349</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8512,21 +8525,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>355</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8538,20 +8551,18 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>360</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8599,13 +8610,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8614,19 +8625,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>361</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8634,24 +8645,24 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8660,19 +8671,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8721,7 +8732,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8730,25 +8741,25 @@
         <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8756,24 +8767,24 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>80</v>
+        <v>371</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>80</v>
@@ -8782,18 +8793,20 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8841,34 +8854,34 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="AK54" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8876,10 +8889,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8890,7 +8903,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8902,18 +8915,18 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="N55" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
       </c>
@@ -8949,23 +8962,25 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8974,19 +8989,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -8994,14 +9009,12 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9022,17 +9035,17 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -9069,19 +9082,17 @@
         <v>80</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9096,19 +9107,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9116,13 +9127,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>80</v>
@@ -9144,17 +9155,17 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9203,7 +9214,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9218,19 +9229,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9238,12 +9249,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9252,10 +9265,10 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9264,19 +9277,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9313,59 +9324,59 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AC58" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>397</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9386,19 +9397,19 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9435,19 +9446,17 @@
         <v>80</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9456,7 +9465,7 @@
         <v>91</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>103</v>
@@ -9465,29 +9474,31 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9499,25 +9510,29 @@
         <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>210</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9565,7 +9580,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>212</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9574,47 +9589,47 @@
         <v>91</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>80</v>
+        <v>414</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>80</v>
+        <v>415</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>213</v>
+        <v>417</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9626,17 +9641,15 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9673,43 +9686,43 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>80</v>
@@ -9720,46 +9733,44 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>424</v>
+        <v>221</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>425</v>
+        <v>222</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>427</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9795,31 +9806,31 @@
         <v>80</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>80</v>
+        <v>223</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>428</v>
+        <v>224</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
@@ -9828,10 +9839,10 @@
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>430</v>
+        <v>218</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>80</v>
@@ -9842,10 +9853,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9853,39 +9864,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>427</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O63" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q63" t="s" s="2">
-        <v>436</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9905,13 +9916,13 @@
         <v>80</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>437</v>
+        <v>80</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>438</v>
+        <v>80</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
@@ -9929,7 +9940,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9950,10 +9961,10 @@
         <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
@@ -9964,10 +9975,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9975,37 +9986,39 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>209</v>
+        <v>111</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="R64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10025,13 +10038,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>80</v>
+        <v>192</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>80</v>
+        <v>441</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>80</v>
+        <v>442</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -10049,7 +10062,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10070,10 +10083,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -10084,10 +10097,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10110,24 +10123,24 @@
         <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
-        <v>455</v>
+        <v>80</v>
       </c>
       <c r="S65" t="s" s="2">
         <v>80</v>
@@ -10169,7 +10182,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10178,7 +10191,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>457</v>
+        <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -10190,10 +10203,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10204,10 +10217,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10230,26 +10243,24 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>80</v>
@@ -10267,13 +10278,13 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>464</v>
+        <v>80</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
@@ -10291,7 +10302,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10300,7 +10311,7 @@
         <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>80</v>
+        <v>461</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -10312,10 +10323,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10326,10 +10337,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10337,7 +10348,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
@@ -10349,22 +10360,22 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10389,13 +10400,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10413,7 +10424,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10422,7 +10433,7 @@
         <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>475</v>
+        <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>103</v>
@@ -10434,10 +10445,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>134</v>
+        <v>452</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10448,24 +10459,24 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>80</v>
@@ -10474,19 +10485,19 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10511,13 +10522,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10535,16 +10546,16 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10553,31 +10564,31 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10596,19 +10607,19 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10633,13 +10644,13 @@
         <v>80</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10657,7 +10668,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10675,27 +10686,27 @@
         <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP69" t="s" s="2">
-        <v>80</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10706,7 +10717,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>80</v>
@@ -10718,18 +10729,20 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>195</v>
+        <v>494</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M70" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
@@ -10753,13 +10766,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>501</v>
+        <v>80</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>503</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10777,13 +10790,13 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>80</v>
@@ -10795,27 +10808,27 @@
         <v>80</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>507</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10838,20 +10851,18 @@
         <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10875,31 +10886,31 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10917,27 +10928,27 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>508</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>511</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10960,18 +10971,20 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>518</v>
+        <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>515</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>516</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
       </c>
@@ -10995,13 +11008,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>80</v>
+        <v>517</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>80</v>
+        <v>518</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11019,7 +11032,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11037,27 +11050,27 @@
         <v>80</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>525</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11080,16 +11093,16 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11139,7 +11152,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11157,27 +11170,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11188,7 +11201,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11200,20 +11213,18 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>534</v>
+      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11261,45 +11272,45 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM74" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>80</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11310,7 +11321,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11322,16 +11333,20 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>209</v>
+        <v>540</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>210</v>
+        <v>541</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>544</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11379,19 +11394,19 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>212</v>
+        <v>539</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>80</v>
+        <v>545</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
@@ -11400,10 +11415,10 @@
         <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>80</v>
+        <v>546</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>213</v>
+        <v>547</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
@@ -11414,21 +11429,21 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11440,17 +11455,15 @@
         <v>80</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11499,19 +11512,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11523,7 +11536,7 @@
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11534,14 +11547,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>547</v>
+        <v>154</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11554,26 +11567,24 @@
         <v>80</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>548</v>
+        <v>221</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>549</v>
+        <v>222</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11621,7 +11632,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>550</v>
+        <v>224</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11645,7 +11656,7 @@
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11656,42 +11667,46 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>552</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="M78" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="N78" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>158</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
       </c>
@@ -11739,19 +11754,19 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>555</v>
+        <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11760,10 +11775,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>557</v>
+        <v>134</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11774,10 +11789,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11800,13 +11815,13 @@
         <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11857,7 +11872,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11866,7 +11881,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11878,7 +11893,7 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>561</v>
@@ -11918,7 +11933,7 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>195</v>
+        <v>556</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>563</v>
@@ -11926,12 +11941,8 @@
       <c r="M80" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>566</v>
-      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11955,13 +11966,13 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -11988,7 +11999,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>80</v>
+        <v>559</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -11997,13 +12008,13 @@
         <v>80</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>569</v>
+        <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>487</v>
+        <v>565</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12014,10 +12025,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12028,7 +12039,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12040,19 +12051,19 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
@@ -12077,13 +12088,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>501</v>
+        <v>115</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12101,13 +12112,13 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
@@ -12119,13 +12130,13 @@
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12136,10 +12147,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12150,7 +12161,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12162,17 +12173,19 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="O82" t="s" s="2">
         <v>579</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
@@ -12197,13 +12210,13 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>80</v>
+        <v>580</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
@@ -12221,13 +12234,13 @@
         <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
@@ -12239,13 +12252,13 @@
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12256,10 +12269,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12282,16 +12295,18 @@
         <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>209</v>
+        <v>583</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
         <v>586</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12339,7 +12354,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12360,7 +12375,7 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>556</v>
+        <v>80</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>587</v>
@@ -12388,7 +12403,7 @@
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>80</v>
@@ -12397,20 +12412,18 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>592</v>
-      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
@@ -12465,7 +12478,7 @@
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>80</v>
@@ -12480,10 +12493,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>593</v>
+        <v>560</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12494,10 +12507,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12520,16 +12533,16 @@
         <v>92</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="N85" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>599</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12579,7 +12592,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12600,10 +12613,10 @@
         <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
@@ -12614,10 +12627,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12631,7 +12644,7 @@
         <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>80</v>
@@ -12640,10 +12653,10 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>536</v>
+        <v>600</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>602</v>
@@ -12651,9 +12664,7 @@
       <c r="N86" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="O86" t="s" s="2">
-        <v>604</v>
-      </c>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
       </c>
@@ -12701,7 +12712,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12713,7 +12724,7 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>605</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
@@ -12722,10 +12733,10 @@
         <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
@@ -12736,10 +12747,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12750,28 +12761,32 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>209</v>
+        <v>540</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>210</v>
+        <v>606</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>606</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>608</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12819,19 +12834,19 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>212</v>
+        <v>605</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>80</v>
+        <v>609</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12840,10 +12855,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>80</v>
+        <v>610</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>213</v>
+        <v>611</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12854,21 +12869,21 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>149</v>
+        <v>80</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
@@ -12880,17 +12895,15 @@
         <v>80</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="M88" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>152</v>
-      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>80</v>
@@ -12939,19 +12952,19 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -12963,7 +12976,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -12974,14 +12987,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>547</v>
+        <v>154</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12994,26 +13007,24 @@
         <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>136</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>221</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>222</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
       </c>
@@ -13061,7 +13072,7 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>550</v>
+        <v>224</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -13085,7 +13096,7 @@
         <v>80</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>134</v>
+        <v>218</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13096,45 +13107,45 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>612</v>
+        <v>552</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>613</v>
+        <v>553</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>614</v>
+        <v>157</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>615</v>
+        <v>158</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>80</v>
@@ -13159,13 +13170,13 @@
         <v>80</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>294</v>
+        <v>80</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>295</v>
+        <v>80</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>80</v>
@@ -13183,34 +13194,34 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>611</v>
+        <v>554</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>616</v>
+        <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>300</v>
+        <v>134</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>80</v>
@@ -13218,10 +13229,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13229,7 +13240,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
@@ -13244,19 +13255,19 @@
         <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>621</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
@@ -13281,13 +13292,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>187</v>
+        <v>299</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>622</v>
+        <v>300</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>623</v>
+        <v>301</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13305,16 +13316,16 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>624</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13323,27 +13334,27 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>411</v>
+        <v>304</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13363,22 +13374,22 @@
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>195</v>
+        <v>622</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>472</v>
+        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
@@ -13403,13 +13414,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>294</v>
+        <v>192</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>473</v>
+        <v>626</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>474</v>
+        <v>627</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13427,7 +13438,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13436,7 +13447,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13445,41 +13456,41 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>629</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13488,19 +13499,19 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>479</v>
+        <v>631</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>480</v>
+        <v>632</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>481</v>
+        <v>633</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13525,13 +13536,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13549,16 +13560,16 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>80</v>
+        <v>634</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13567,31 +13578,31 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>485</v>
+        <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>80</v>
+        <v>482</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13610,19 +13621,19 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>81</v>
+        <v>200</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>633</v>
+        <v>483</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>634</v>
+        <v>484</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13647,13 +13658,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>80</v>
+        <v>299</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13671,7 +13682,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13689,23 +13700,145 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>80</v>
+        <v>489</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>542</v>
+        <v>490</v>
       </c>
       <c r="AN94" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AO94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP94" t="s" s="2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N95" t="s" s="2">
         <v>543</v>
       </c>
-      <c r="AO94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP94" t="s" s="2">
+      <c r="O95" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AO95" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP95" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP94">
+  <autoFilter ref="A1:AP95">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13715,7 +13848,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI93">
+  <conditionalFormatting sqref="A2:AI94">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -13414,7 +13414,7 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>192</v>
+        <v>299</v>
       </c>
       <c r="Y92" t="s" s="2">
         <v>626</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -97,7 +97,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the body height archetype: Høyde/Lengde, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2274</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Body Height information.  
-To be used for recording the measured height or body length of an individual at any point in time.</t>
+    <t xml:space="preserve">Base profile for Norwegian Vital Signs Observation Body Height information.  
+To be used for recording the measured height or body length of an individual at any point in time. It represents the individual's height or length measured from the crown of the head to the sole of the foot. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1080,7 +1080,7 @@
     <t>Observation.code.coding:BodyHeightSnomedCode.code</t>
   </si>
   <si>
-    <t>50373000</t>
+    <t>1153637007</t>
   </si>
   <si>
     <t>Observation.code.coding:BodyHeightSnomedCode.display</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Base profile for Norwegian Vital Signs Observation Body Height information.  
+    <t xml:space="preserve">Domain profile for Norwegian Vital Signs Observation Body Height information.  
 To be used for recording the measured height or body length of an individual at any point in time. It represents the individual's height or length measured from the crown of the head to the sole of the foot. </t>
   </si>
   <si>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationBodyHeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2356,17 +2356,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.94921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.53515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2375,28 +2375,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="88.15234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.83984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
